--- a/Assignments/Google Sheets - GSS/GSS Assignment - 1.xlsx
+++ b/Assignments/Google Sheets - GSS/GSS Assignment - 1.xlsx
@@ -1,17 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gulfa\Desktop\Clarusway\Clarusway_DA\Clarusway_DA\Assignments\Google Sheets - GSS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0312246B-7289-4202-8AC1-DC3AA7F8B7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Statistical Measures" sheetId="1" r:id="rId4"/>
+    <sheet name="Statistical Measures" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>X</t>
   </si>
@@ -31,20 +51,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">COUNT </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Function</t>
     </r>
@@ -52,20 +72,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">SUM </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Function</t>
     </r>
@@ -73,20 +93,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">MODE </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Function</t>
     </r>
@@ -94,20 +114,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">MEDIAN </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Function</t>
     </r>
@@ -115,20 +135,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">MEAN </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Calculation</t>
     </r>
@@ -136,20 +156,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">MEAN </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Function</t>
     </r>
@@ -157,20 +177,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">MIN </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Function</t>
     </r>
@@ -178,20 +198,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">MAX </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Function</t>
     </r>
@@ -199,20 +219,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">RANGE </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Calculation</t>
     </r>
@@ -220,20 +240,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Q1 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Function</t>
     </r>
@@ -241,20 +261,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Q2 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Function</t>
     </r>
@@ -262,20 +282,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Q3 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Function</t>
     </r>
@@ -283,20 +303,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">IQR </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Calculation</t>
     </r>
@@ -304,20 +324,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">VARIANCE </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Calculation</t>
     </r>
@@ -325,20 +345,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">VARIANCE </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Function</t>
     </r>
@@ -346,20 +366,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">STANDARD DEV </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Calculation</t>
     </r>
@@ -367,20 +387,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">COVARIANCE </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Calculation</t>
     </r>
@@ -388,20 +408,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">STANDARD DEV </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Function</t>
     </r>
@@ -409,20 +429,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">COVARIANCE </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Function</t>
     </r>
@@ -430,20 +450,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">SKEWNESS </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Function</t>
     </r>
@@ -451,20 +471,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>CORRELATION</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> Calculation</t>
     </r>
@@ -472,20 +492,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">KURTOSIS </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Function</t>
     </r>
@@ -493,74 +513,92 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>CORRELATION</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-        <sz val="12.0"/>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> Function</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -569,7 +607,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -609,26 +647,18 @@
     </fill>
   </fills>
   <borders count="14">
-    <border/>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
@@ -637,6 +667,22 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -651,6 +697,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -659,9 +706,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -673,6 +722,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -687,6 +738,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -701,6 +753,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -715,6 +768,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -729,6 +783,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -743,6 +798,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -757,125 +813,107 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="41">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="9" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="6" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="3" fillId="6" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="5" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="9" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="6" fontId="9" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="9" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="8" fillId="6" fontId="9" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="5" fontId="9" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="11" fillId="6" fontId="9" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="6" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="7" fontId="9" numFmtId="4" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="13" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="7" fontId="9" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="3" fillId="5" fontId="9" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="3" fillId="6" fontId="9" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="8" fillId="7" fontId="9" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -892,7 +930,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-CA" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -905,6 +943,7 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -935,14 +974,99 @@
           <c:xVal>
             <c:numRef>
               <c:f>'Statistical Measures'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'Statistical Measures'!$C$2:$C$13</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E345-41EB-BF25-9088552FF894}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -997,7 +1121,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-CA" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1029,9 +1153,12 @@
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="185656782"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="185656782"/>
@@ -1075,7 +1202,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-CA" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1107,9 +1234,12 @@
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="810280066"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1127,16 +1257,24 @@
               <a:latin typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1145,9 +1283,15 @@
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1156,7 +1300,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1172,11 +1316,17 @@
     <xdr:ext cx="2095500" cy="2095500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="3" name="image1.png" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1194,7 +1344,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1384,25 +1534,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.14"/>
-    <col customWidth="1" min="2" max="3" width="13.71"/>
-    <col customWidth="1" min="5" max="5" width="36.57"/>
+    <col min="1" max="1" width="32.109375" customWidth="1"/>
+    <col min="2" max="3" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1418,422 +1573,428 @@
       <c r="H1" s="5"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="7">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C2" s="8">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C3" s="8">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C4" s="8">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C5" s="8">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C6" s="8">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C7" s="8">
-        <v>53.0</v>
+        <v>53</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C8" s="8">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="7">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C9" s="8">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C10" s="8">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="7">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C11" s="8">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
       <c r="B12" s="7">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C12" s="8">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
       <c r="B13" s="7">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C13" s="8">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="14">
-        <f t="shared" ref="B14:C14" si="1">COUNT(B2:B13)</f>
+        <f t="shared" ref="B14:C14" si="0">COUNT(B2:B13)</f>
         <v>12</v>
       </c>
       <c r="C14" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="14">
-        <f t="shared" ref="B15:C15" si="2">SUM(B2:B13)</f>
+        <f t="shared" ref="B15:C15" si="1">SUM(B2:B13)</f>
         <v>165</v>
       </c>
       <c r="C15" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>697</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="18">
-        <f t="shared" ref="B16:C16" si="3">MODE(B2:B13)</f>
+        <f t="shared" ref="B16:C16" si="2">MODE(B2:B13)</f>
         <v>12</v>
       </c>
       <c r="C16" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="20">
-        <f t="shared" ref="B17:C17" si="4">MEDIAN(B2:B13)</f>
+        <f t="shared" ref="B17:C17" si="3">MEDIAN(B2:B13)</f>
         <v>13.5</v>
       </c>
       <c r="C17" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>58.5</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="23">
-        <f t="shared" ref="B18:C18" si="5">B15/B14</f>
+        <f t="shared" ref="B18:C18" si="4">B15/B14</f>
         <v>13.75</v>
       </c>
       <c r="C18" s="24">
-        <f t="shared" si="5"/>
-        <v>58.08333333</v>
+        <f t="shared" si="4"/>
+        <v>58.083333333333336</v>
       </c>
       <c r="I18" s="25"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="27">
-        <f t="shared" ref="B19:C19" si="6">AVERAGE(B2:B13)</f>
+        <f t="shared" ref="B19:C19" si="5">AVERAGE(B2:B13)</f>
         <v>13.75</v>
       </c>
       <c r="C19" s="28">
-        <f t="shared" si="6"/>
-        <v>58.08333333</v>
+        <f t="shared" si="5"/>
+        <v>58.083333333333336</v>
       </c>
       <c r="I19" s="25"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="14">
-        <f t="shared" ref="B20:C20" si="7">MIN(B2:B13)</f>
+        <f t="shared" ref="B20:C20" si="6">MIN(B2:B13)</f>
         <v>7</v>
       </c>
       <c r="C20" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="18">
-        <f t="shared" ref="B21:C21" si="8">MAX(B2:B13)</f>
+        <f t="shared" ref="B21:C21" si="7">MAX(B2:B13)</f>
         <v>20</v>
       </c>
       <c r="C21" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="18">
-        <f t="shared" ref="B22:C22" si="9">B21-B20</f>
+        <f t="shared" ref="B22:C22" si="8">B21-B20</f>
         <v>13</v>
       </c>
       <c r="C22" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>69</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="18">
-        <f t="shared" ref="B23:C23" si="10">MEDIAN(B2:B7)</f>
+        <f t="shared" ref="B23:C23" si="9">MEDIAN(B2:B7)</f>
         <v>10.5</v>
       </c>
       <c r="C23" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>39.5</v>
       </c>
       <c r="F23" s="9"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="18">
-        <f t="shared" ref="B24:C24" si="11">MEDIAN(B2:B13)</f>
+        <f t="shared" ref="B24:C24" si="10">MEDIAN(B2:B13)</f>
         <v>13.5</v>
       </c>
       <c r="C24" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>58.5</v>
       </c>
       <c r="F24" s="9"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="18">
-        <f t="shared" ref="B25:C25" si="12">MEDIAN(B8:B13)</f>
+        <f t="shared" ref="B25:C25" si="11">MEDIAN(B8:B13)</f>
         <v>17</v>
       </c>
       <c r="C25" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>80.5</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="30">
-        <f t="shared" ref="B26:C26" si="13">B25-B23</f>
+        <f t="shared" ref="B26:C26" si="12">B25-B23</f>
         <v>6.5</v>
       </c>
       <c r="C26" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>41</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="23">
-        <f t="shared" ref="B27:C27" si="14">((B2-B18)^2 +(B3-B18)^2+(B4-B18)^2+(B5-B18)^2+(B6-B18)^2+(B7-B18)^2+(B8-B18)^2+(B9-B18)^2+(B10-B18)^2+(B11-B18)^2+(B12-B18)^2+(B13-B18)^2)/(B14-1)</f>
-        <v>17.47727273</v>
+        <f t="shared" ref="B27:C27" si="13">((B2-B18)^2 +(B3-B18)^2+(B4-B18)^2+(B5-B18)^2+(B6-B18)^2+(B7-B18)^2+(B8-B18)^2+(B9-B18)^2+(B10-B18)^2+(B11-B18)^2+(B12-B18)^2+(B13-B18)^2)/(B14-1)</f>
+        <v>17.477272727272727</v>
       </c>
       <c r="C27" s="24">
-        <f t="shared" si="14"/>
-        <v>577.5378788</v>
-      </c>
-    </row>
-    <row r="28">
+        <f t="shared" si="13"/>
+        <v>577.53787878787887</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="27">
-        <f t="shared" ref="B28:C28" si="15">VAR(B2:B13)</f>
-        <v>17.47727273</v>
+        <f t="shared" ref="B28:C28" si="14">VAR(B2:B13)</f>
+        <v>17.477272727272727</v>
       </c>
       <c r="C28" s="28">
-        <f t="shared" si="15"/>
-        <v>577.5378788</v>
-      </c>
-    </row>
-    <row r="29">
+        <f t="shared" si="14"/>
+        <v>577.53787878787853</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="23">
-        <f t="shared" ref="B29:C29" si="16">SQRT(B27)</f>
-        <v>4.180582821</v>
+        <f t="shared" ref="B29:C29" si="15">SQRT(B27)</f>
+        <v>4.180582821482278</v>
       </c>
       <c r="C29" s="24">
-        <f t="shared" si="16"/>
-        <v>24.03201778</v>
+        <f t="shared" si="15"/>
+        <v>24.032017784361738</v>
       </c>
       <c r="E29" s="32" t="s">
         <v>21</v>
       </c>
       <c r="F29" s="33">
         <f>((B2-$B$18)*(C2-$C$18) + (B3-$B$18)*(C3-$C$18) + (B4-$B$18)*(C4-$C$18) + (B5-$B$18)*(C5-$C$18)+ (B6-$B$18)*(C6-$C$18)+ (B7-$B$18)*(C7-$C$18)+ (B8-$B$18)*(C8-$C$18)+ (B9-$B$18)*(C9-$C$18)+ (B10-$B$18)*(C10-$C$18)+ (B11-$B$18)*(C11-$C$18)+ (B12-$B$18)*(C12-$C$18)+ (B13-$B$18)*(C13-$C$18))/11</f>
-        <v>99.29545455</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>99.295454545454561</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="27">
-        <f t="shared" ref="B30:C30" si="17">STDEV(B2:B13)</f>
-        <v>4.180582821</v>
+        <f t="shared" ref="B30:C30" si="16">STDEV(B2:B13)</f>
+        <v>4.180582821482278</v>
       </c>
       <c r="C30" s="28">
-        <f t="shared" si="17"/>
-        <v>24.03201778</v>
+        <f t="shared" si="16"/>
+        <v>24.032017784361731</v>
       </c>
       <c r="E30" s="34" t="s">
         <v>23</v>
       </c>
       <c r="F30" s="35">
         <f>_xlfn.COVARIANCE.S(B2:B13,C2:C13)</f>
-        <v>99.29545455</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>99.295454545454561</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="36">
-        <f t="shared" ref="B31:C31" si="18">SKEW(B2:B13)</f>
-        <v>-0.01287766638</v>
+        <f t="shared" ref="B31:C31" si="17">SKEW(B2:B13)</f>
+        <v>-1.2877666379101866E-2</v>
       </c>
       <c r="C31" s="37">
-        <f t="shared" si="18"/>
-        <v>-0.191540125</v>
+        <f t="shared" si="17"/>
+        <v>-0.19154012502233397</v>
       </c>
       <c r="E31" s="32" t="s">
         <v>25</v>
       </c>
       <c r="F31" s="38">
         <f>((B2-$B$18)*(C2-$C$18) + (B3-$B$18)*(C3-$C$18) + (B4-$B$18)*(C4-$C$18) + (B5-$B$18)*(C5-$C$18)+ (B6-$B$18)*(C6-$C$18)+ (B7-$B$18)*(C7-$C$18)+ (B8-$B$18)*(C8-$C$18)+ (B9-$B$18)*(C9-$C$18)+ (B10-$B$18)*(C10-$C$18)+ (B11-$B$18)*(C11-$C$18)+ (B12-$B$18)*(C12-$C$18)+ (B13-$B$18)*(C13-$C$18))/SQRT((((B2-B18)^2 +(B3-B18)^2+(B4-B18)^2+(B5-B18)^2+(B6-B18)^2+(B7-B18)^2+(B8-B18)^2+(B9-B18)^2+(B10-B18)^2+(B11-B18)^2+(B12-B18)^2+(B13-B18)^2))*((C2-C18)^2 +(C3-C18)^2+(C4-C18)^2+(C5-C18)^2+(C6-C18)^2+(C7-C18)^2+(C8-C18)^2+(C9-C18)^2+(C10-C18)^2+(C11-C18)^2+(C12-C18)^2+(C13-C18)^2))</f>
-        <v>0.9883307319</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>0.98833073189328213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="36">
-        <f t="shared" ref="B32:C32" si="19">KURT(B2:B13)</f>
-        <v>-1.183534705</v>
+        <f t="shared" ref="B32:C32" si="18">KURT(B2:B13)</f>
+        <v>-1.1835347049715255</v>
       </c>
       <c r="C32" s="37">
-        <f t="shared" si="19"/>
-        <v>-1.401790616</v>
+        <f t="shared" si="18"/>
+        <v>-1.4017906164290803</v>
       </c>
       <c r="E32" s="34" t="s">
         <v>27</v>
       </c>
       <c r="F32" s="35">
         <f>CORREL(B2:B13,C2:C13)</f>
-        <v>0.9883307319</v>
+        <v>0.98833073189328213</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A11:A13"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>